--- a/test1newAppend.xlsx
+++ b/test1newAppend.xlsx
@@ -595,12 +595,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ID_1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fruit</t>
+          <t>Fruit_1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Color_1</t>
         </is>
       </c>
     </row>

--- a/test1newAppend.xlsx
+++ b/test1newAppend.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet-Appended" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,11 +676,6 @@
           <t>roundish</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>red-orange</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr"/>
@@ -1033,24 +1028,6 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Trailing row here</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
